--- a/BackTest/2020-01-20 BackTest LTC.xlsx
+++ b/BackTest/2020-01-20 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,7 +1507,7 @@
         <v>-3191.127432120001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3305.164032120001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3237.502232120001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3246.472132120001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2643.896401620001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2760.928652630001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2718.549252630001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1102.415652630001</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1103.058652630001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-871.7430526300012</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-869.6946526300012</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-849.6990526300012</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-515.4135549100009</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-385.3931549100009</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-331.201454910001</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-243.1890549100009</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-243.1890549100009</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-231.2590549100009</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-231.2590549100009</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-232.589054910001</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-344.5287549100009</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-338.7473549100009</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-339.5179549100009</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-339.5279549100009</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-476.7535549100009</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-464.7535549100009</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-180.3611549100009</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-78.29615491000092</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>290.488345089999</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>879.120545089999</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>659.9753450899991</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>530.9720450899991</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>634.6030450899991</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>835.1276450899991</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>888.1389450899991</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>1018.986445089999</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>861.158745089999</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>1117.091145089999</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>1015.492345089999</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>927.5359450899989</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>943.4200450899989</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>879.1682811699989</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>904.0626811699989</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>887.0455811699989</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>1113.677181169999</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>1018.422781169999</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>1291.387766879999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>910.6639674399988</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>865.9546674399988</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>707.3695521399989</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>687.0918521399989</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>753.0390521399988</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>802.5340521399988</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>802.5340521399988</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>683.5645521399988</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>418.2096521399988</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>418.2096521399988</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>422.6596521399988</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>422.8962521399988</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>103.5222788299989</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>121.1123788299988</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>189.9615788299988</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>199.5105788299988</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>213.7617788299989</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>213.7617788299989</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>263.0719788299988</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>247.0915788299988</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>266.8258788299988</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>266.8258788299988</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>215.9237788299988</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>171.4415788299988</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>171.4415788299988</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>99.70777882999883</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>99.70777882999883</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>50.00187882999883</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>50.00187882999883</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>50.00187882999883</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-64.99812117000117</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-64.99812117000117</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-62.87592117000117</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-5.400121170001171</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1.443321170001171</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-33.30822117000117</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-33.82722117000117</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-264.8272211700012</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-264.8272211700012</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-268.8490211700012</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>20.17457882999884</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-183.0908211700012</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-183.0908211700012</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-231.2173211700012</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-226.9970211700011</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-226.9970211700011</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>146.0490788299989</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>150.3620788299989</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>160.3620788299989</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>174.3364788299989</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>180.6982788299989</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>184.6982788299989</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>105.8780788299989</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>127.5362788299989</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>339.6034788299989</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>568.2516788299989</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>574.3378788299989</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>477.1622788299989</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>581.5302788299989</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>578.7076788299989</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>606.7154788299989</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>573.9153788299989</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>558.6144788299989</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>439.9598788299989</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>406.2630788299989</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>480.6057788299989</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>474.9403788299989</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-846.7387211700011</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-876.4375211700011</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-876.4375211700011</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-932.4903211700012</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-884.9852211700011</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-899.762021170001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-899.762021170001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-971.7819211700011</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-1081.719021170001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-1101.731921170001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-1086.831121170001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-1137.795821170001</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1155.798621170001</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-1113.066921170001</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-1110.117021170001</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1110.117021170001</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1109.130821170001</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-1109.130821170001</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-1109.130821170001</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1101.324921170001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1101.324921170001</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1107.306421170001</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1073.190921170001</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1130.319636740001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1125.981636740001</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1117.734636740001</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1117.734636740001</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1127.734636740001</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1264.055036740001</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-2527.416436740001</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-2527.416436740001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-2634.810336740001</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-2574.152936740001</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-2558.262436740001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-2862.684336740001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-2861.353636740001</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-2852.744536740001</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-2856.026536740001</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-2864.073336740001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-2878.801936740001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-2882.463136740001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-2989.003936740001</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3022.874436740001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-2807.619036740001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-2807.619036740001</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-2807.619036740001</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-2794.567036740001</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-2723.260036740001</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-2692.490036740001</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-2688.269936740001</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-2688.892236740001</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-2704.409736740001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-2704.409736740001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-2704.409736740001</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-2743.039236740001</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-2760.860536740001</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-2692.670136740001</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-2729.330336740001</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-2729.330336740001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-2738.413536740001</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-2962.536636740001</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-2962.536636740001</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-2962.536636740001</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-2408.968936740001</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-2399.299836740001</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-2399.299836740001</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-2363.936836740001</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-2345.426536740001</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-2345.426536740001</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-2345.426536740001</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-2240.157336740001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-2248.572836740001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-2270.319436740001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-2252.063836740001</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-2240.630936740001</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-2242.257636740001</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-2243.828536740001</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-2243.843036740001</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-2261.253536740001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-2161.229236740001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-1994.350936740001</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-2031.913336740001</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-2141.913336740001</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-2141.913336740001</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-2142.668836740002</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-2142.022236740002</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-2142.022236740002</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-2144.123536740001</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-2144.123536740001</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-2144.123536740001</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-2144.138136740001</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-2144.138136740001</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-2144.138136740001</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-2072.798136740001</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-2033.717236740001</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2016.048936740001</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2016.048936740001</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-2016.048936740001</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2043.145936740001</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2043.145936740001</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-2015.990842950001</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-2242.586942950001</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-2239.637042950001</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-2239.637042950001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-2215.237042950001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-2213.793842950001</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-2197.844042950001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-2197.879842950001</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-2182.617542950001</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-2182.617542950001</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-2189.788142950001</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-2177.739342950001</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2114.345442950001</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-2114.345442950001</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-1796.990742950001</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-1801.167142950001</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-1797.257342950001</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-1797.857342950001</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-1797.857342950001</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-1843.978142950001</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-1843.978142950001</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-1772.515988280001</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-1773.015988280001</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-1773.015988280001</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-1773.015988280001</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1827.166788280001</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1827.166788280001</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-1827.166788280001</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-2039.689088280001</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-2039.689088280001</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-2039.689088280001</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-2124.368688280001</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-2123.314188280001</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-2123.314188280001</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-2133.441888280001</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-2133.441888280001</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-2139.399788280001</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-2152.541388280001</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-2143.087383940001</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-2143.087383940001</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-2148.420783940001</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-2148.257883940001</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-2150.257883940001</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-2149.978783940001</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-2199.64618394</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-2196.541383360001</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-2202.37198336</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-2268.36188336</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-2268.36188336</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-2266.97328336</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-2148.90978336</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-2073.55988336</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-2073.55988336</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-2073.55988336</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-2073.94568336</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-2073.94568336</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-2073.98568336</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-2091.39008336</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-2090.66828336</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-2140.68828336</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-2235.67838336</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-2251.99488336</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-2258.14528336</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-2248.792883359999</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-2250.237783359999</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-2250.237783359999</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-2250.237783359999</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-2308.814729649999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-2308.814729649999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-3068.357029649999</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-3829.648429649999</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-4604.756029649999</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-5484.466529649999</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-5484.466529649999</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-5355.497029649999</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-5762.638029649998</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-5790.532729649998</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-5608.445529649998</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-5712.992029649999</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-5711.592029649999</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-5711.832829649999</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-5890.885363959998</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-5186.605263959998</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-4948.183363959998</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-4948.183363959998</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-4997.963563959998</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-4997.963563959998</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-5031.110163959998</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-5029.610163959998</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-5033.645463959998</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-5092.540663959998</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-5095.403063959998</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-5107.440563959998</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-5217.833063959998</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-5217.833063959998</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-5268.896963959998</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-5332.204563959998</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-5351.542158949998</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-5406.352658949998</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-5423.252413689998</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-5526.961013689998</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-5525.431913689999</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-5556.235213689998</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25960,11 +25960,17 @@
         <v>-6472.579013689998</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>63950</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +26003,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26040,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,11 +26073,17 @@
         <v>-5808.086322879997</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>63650</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +26112,17 @@
         <v>-6302.462422879998</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>63400</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26151,17 @@
         <v>-6011.396732069998</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>63300</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26190,17 @@
         <v>-5943.818732069997</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>63800</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26229,17 @@
         <v>-5943.818732069997</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>63950</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26224,11 +26268,17 @@
         <v>-6081.028832069997</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>63950</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26307,17 @@
         <v>-6000.641532069997</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>63600</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26346,17 @@
         <v>-5972.020532069997</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>63650</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26385,17 @@
         <v>-6228.064132069997</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>63850</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26424,17 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>63650</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26463,17 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>63600</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,15 +26502,17 @@
         <v>-6228.440832069997</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>63600</v>
       </c>
-      <c r="J789" t="n">
-        <v>63600</v>
-      </c>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,17 +26541,15 @@
         <v>-6259.855732069997</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>63600</v>
       </c>
-      <c r="J790" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L790" t="n">
@@ -26500,14 +26580,12 @@
         <v>-6210.918732069997</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>63500</v>
       </c>
-      <c r="J791" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26541,14 +26619,12 @@
         <v>-6166.632332069997</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I792" t="n">
         <v>63850</v>
       </c>
-      <c r="J792" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26582,12 +26658,12 @@
         <v>-6159.407132069997</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>64050</v>
+      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26621,12 +26697,12 @@
         <v>-6108.124132069996</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>64200</v>
+      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26660,12 +26736,12 @@
         <v>-6108.124132069996</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26699,12 +26775,12 @@
         <v>-6108.124132069996</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26738,12 +26814,12 @@
         <v>-6079.497032069997</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26777,12 +26853,12 @@
         <v>-6178.990032069997</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>64400</v>
+      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26816,12 +26892,12 @@
         <v>-6278.990032069997</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26855,12 +26931,12 @@
         <v>-6220.040654559997</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>64300</v>
+      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26897,9 +26973,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26936,9 +27010,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26975,9 +27047,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27014,9 +27084,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27053,9 +27121,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27092,9 +27158,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27131,9 +27195,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27170,9 +27232,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27209,9 +27269,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27248,9 +27306,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27287,9 +27343,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27326,9 +27380,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27365,9 +27417,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27404,9 +27454,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27443,9 +27491,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27479,12 +27525,12 @@
         <v>-5703.711253939998</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>64000</v>
+      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27521,9 +27567,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27560,9 +27604,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27599,9 +27641,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27638,9 +27678,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27677,9 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27716,9 +27752,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27755,9 +27789,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27794,9 +27826,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27833,9 +27863,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27872,9 +27900,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27911,9 +27937,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27950,9 +27974,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27986,12 +28008,12 @@
         <v>-5906.049983049998</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>63800</v>
+      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28025,12 +28047,12 @@
         <v>-5900.249983049998</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>63800</v>
+      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28064,12 +28086,12 @@
         <v>-5900.249983049998</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>63900</v>
+      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28103,12 +28125,12 @@
         <v>-5963.034583049998</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>63900</v>
+      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28142,12 +28164,12 @@
         <v>-6240.507383049999</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>63750</v>
+      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28181,12 +28203,12 @@
         <v>-6231.079183049998</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>63450</v>
+      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28220,14 +28242,12 @@
         <v>-6264.152483049998</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I835" t="n">
         <v>63500</v>
       </c>
-      <c r="J835" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28261,14 +28281,12 @@
         <v>-6214.673183049998</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>63250</v>
       </c>
-      <c r="J836" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28302,14 +28320,12 @@
         <v>-5896.170483049998</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>63300</v>
       </c>
-      <c r="J837" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28343,14 +28359,12 @@
         <v>-5630.242583049999</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>63550</v>
       </c>
-      <c r="J838" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28384,14 +28398,12 @@
         <v>-5689.672283049998</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>63600</v>
       </c>
-      <c r="J839" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28425,14 +28437,12 @@
         <v>-5690.672283049998</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840" t="n">
         <v>63500</v>
       </c>
-      <c r="J840" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28466,14 +28476,12 @@
         <v>-5640.656483049998</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>63350</v>
       </c>
-      <c r="J841" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28507,14 +28515,12 @@
         <v>-5640.656483049998</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>63500</v>
       </c>
-      <c r="J842" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28548,14 +28554,12 @@
         <v>-5944.511383049999</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>63500</v>
       </c>
-      <c r="J843" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28589,14 +28593,12 @@
         <v>-5913.079283049999</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>63200</v>
       </c>
-      <c r="J844" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28630,14 +28632,12 @@
         <v>-5905.999383049999</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>63650</v>
       </c>
-      <c r="J845" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28671,14 +28671,12 @@
         <v>-5905.281383049999</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>63800</v>
       </c>
-      <c r="J846" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28712,14 +28710,12 @@
         <v>-5905.281383049999</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>63850</v>
       </c>
-      <c r="J847" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28753,14 +28749,12 @@
         <v>-5902.612483049999</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>63850</v>
       </c>
-      <c r="J848" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28794,14 +28788,12 @@
         <v>-5940.265683049999</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>63900</v>
       </c>
-      <c r="J849" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28835,14 +28827,12 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>63800</v>
       </c>
-      <c r="J850" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28876,14 +28866,12 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>63950</v>
       </c>
-      <c r="J851" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28917,14 +28905,12 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>63950</v>
       </c>
-      <c r="J852" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28958,14 +28944,12 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>64050</v>
       </c>
-      <c r="J853" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28999,14 +28983,12 @@
         <v>-5822.158841029999</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>64050</v>
       </c>
-      <c r="J854" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29040,12 +29022,12 @@
         <v>-5853.498841029999</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>64250</v>
+      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29079,12 +29061,12 @@
         <v>-5910.49264103</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>64150</v>
+      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29118,12 +29100,12 @@
         <v>-5806.501941029999</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>64050</v>
+      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29157,12 +29139,12 @@
         <v>-5806.763641029999</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>64200</v>
+      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29196,12 +29178,12 @@
         <v>-5777.846380329999</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>64150</v>
+      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29235,12 +29217,12 @@
         <v>-5777.846380329999</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>64250</v>
+      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29274,12 +29256,12 @@
         <v>-5791.880980329999</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>64250</v>
+      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29313,12 +29295,12 @@
         <v>-5805.380180329999</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>63600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>64050</v>
+      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29330,6 +29312,6 @@
       <c r="M862" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest LTC.xlsx
+++ b/BackTest/2020-01-20 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1474,7 +1474,7 @@
         <v>-3201.127432120001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3191.127432120001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3305.164032120001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3237.502232120001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3246.472132120001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3018.341032120001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3157.526932120001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3028.657832120001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2643.896401620001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2872.288801620001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2855.171601620001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2869.604601620001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2864.075452630001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2783.832052630001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2819.551152630001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2820.178952630001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2862.231552630001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2760.928652630001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2718.549252630001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2743.205852630001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2801.482552630001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2793.928952630001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2773.613352630001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2811.705752630001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1319.302652630001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1748.320652630001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1581.452452630001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1414.970152630001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1309.764152630001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1319.456652630001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1322.251352630001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1361.140952630001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1361.121452630001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1492.010752630001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1495.161352630001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1499.300552630001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1600.288552630001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1592.549352630001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1591.599652630001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1585.574952630001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1622.873652630002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1665.841452630001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1502.101452630001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1473.207852630001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1469.776952630001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1469.457352630001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1479.597552630001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1479.973552630001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1449.356752630001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1276.318752630001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1277.318752630001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1338.272052630001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1296.787452630001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1306.787452630001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1303.786452630001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1273.698352630001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1352.211252630001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1340.635252630001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1116.954352630001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1124.717252630001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1176.986152630001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1162.522152630001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1163.335752630001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-939.909152630001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-938.245152630001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-915.186452630001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1102.415652630001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1103.058652630001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1102.058652630001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1098.758652630001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-885.0584526300011</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1027.017752630001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1024.617752630001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1166.577052630001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1167.248052630001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1167.266452630001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1063.266452630001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1063.406452630001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1047.553752630001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1052.553752630001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1031.566052630001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1001.024052630001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-976.0240526300012</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-518.078754910001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-515.4135549100009</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-385.3931549100009</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-331.201454910001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-243.1890549100009</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-338.7473549100009</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-339.5179549100009</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-339.5279549100009</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-388.0461549100009</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-304.5212549100009</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-304.5112549100009</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-476.7535549100009</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-464.7535549100009</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-180.3611549100009</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>879.1682811699989</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>904.0626811699989</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>887.0455811699989</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>1113.677181169999</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>1018.422781169999</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>1291.387766879999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>865.9546674399988</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>707.3695521399989</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>687.0918521399989</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>753.0390521399988</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>418.2096521399988</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>103.5222788299989</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>121.1123788299988</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>189.9615788299988</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>199.5105788299988</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>213.7617788299989</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>213.7617788299989</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>263.0719788299988</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>247.0915788299988</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>266.8258788299988</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>266.8258788299988</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>215.9237788299988</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>171.4415788299988</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>171.4415788299988</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>99.70777882999883</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>99.70777882999883</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>50.00187882999883</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>50.00187882999883</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>50.00187882999883</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-64.99812117000117</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-64.99812117000117</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-62.87592117000117</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-5.400121170001171</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1.443321170001171</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-33.30822117000117</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-33.82722117000117</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-264.8272211700012</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-264.8272211700012</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-268.8490211700012</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>20.17457882999884</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-183.0908211700012</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-183.0908211700012</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-231.2173211700012</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-226.9970211700011</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-226.9970211700011</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>146.0490788299989</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>150.3620788299989</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>160.3620788299989</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>174.3364788299989</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>180.6982788299989</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>184.6982788299989</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>127.5362788299989</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>339.6034788299989</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>568.2516788299989</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>574.3378788299989</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>477.1622788299989</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>581.5302788299989</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>578.7076788299989</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>606.7154788299989</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>573.9153788299989</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>558.6144788299989</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>439.9598788299989</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>406.2630788299989</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>480.6057788299989</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>474.9403788299989</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-846.7387211700011</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-876.4375211700011</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-876.4375211700011</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-932.4903211700012</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-884.9852211700011</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-899.762021170001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-899.762021170001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-971.7819211700011</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-1081.719021170001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-1101.731921170001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-1086.831121170001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-1137.795821170001</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1155.798621170001</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-1113.066921170001</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-1110.117021170001</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1110.117021170001</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1109.130821170001</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-1109.130821170001</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-1109.130821170001</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1101.324921170001</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1101.324921170001</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1107.306421170001</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1073.190921170001</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1130.319636740001</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1125.981636740001</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1117.734636740001</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1117.734636740001</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1127.734636740001</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1264.055036740001</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-2527.416436740001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-2527.416436740001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-2634.810336740001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-2574.152936740001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-2558.262436740001</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-2862.684336740001</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-2861.353636740001</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-2852.744536740001</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-2856.026536740001</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-2864.073336740001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-2878.801936740001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-2882.463136740001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-2989.003936740001</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3022.874436740001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-2807.619036740001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-2807.619036740001</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-2807.619036740001</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-2794.567036740001</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-2723.260036740001</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-2692.490036740001</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-2688.269936740001</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-2688.892236740001</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-2704.409736740001</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-2704.409736740001</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-2704.409736740001</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-2743.039236740001</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-2760.860536740001</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-2692.670136740001</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-2729.330336740001</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-2729.330336740001</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-2738.413536740001</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-2962.536636740001</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-2962.536636740001</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-2962.536636740001</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-2408.968936740001</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-2399.299836740001</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-2399.299836740001</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-2363.936836740001</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-2345.426536740001</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-2345.426536740001</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-2345.426536740001</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-2240.157336740001</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-2248.572836740001</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-2270.319436740001</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-2252.063836740001</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-2240.630936740001</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-2242.257636740001</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-2243.828536740001</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-2243.843036740001</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-2261.253536740001</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-2161.229236740001</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-1994.350936740001</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-2031.913336740001</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-2141.913336740001</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-2141.913336740001</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-2142.668836740002</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-2142.022236740002</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-2142.022236740002</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-2144.123536740001</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-2144.123536740001</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-2144.123536740001</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-2144.138136740001</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-2144.138136740001</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-2144.138136740001</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-2072.798136740001</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-2033.717236740001</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2011.092936740001</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2016.048936740001</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2016.048936740001</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-2016.048936740001</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2043.145936740001</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2043.145936740001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-2015.990842950001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-2242.586942950001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-2239.637042950001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-2239.637042950001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-2215.237042950001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-2213.793842950001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-2197.844042950001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-2197.879842950001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-2198.009842950001</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-2182.617542950001</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-2182.617542950001</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-2189.788142950001</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-2177.739342950001</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2114.345442950001</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-2114.345442950001</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-1796.990742950001</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-1801.167142950001</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-1797.257342950001</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-1797.857342950001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-1797.857342950001</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-1843.978142950001</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-1843.978142950001</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-1772.515988280001</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-1773.015988280001</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-1773.015988280001</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-1773.015988280001</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-1788.118488280001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1827.166788280001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1827.166788280001</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-1827.166788280001</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-2039.689088280001</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-2039.689088280001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-2039.689088280001</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-2124.368688280001</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-2123.314188280001</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-2123.314188280001</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-2133.441888280001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-2133.441888280001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-2139.399788280001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-2152.541388280001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-2143.087383940001</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-2143.087383940001</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-2148.420783940001</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-2148.257883940001</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-2150.257883940001</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-2149.978783940001</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-2199.64618394</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-2196.541383360001</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-2202.37198336</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-2268.36188336</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-2268.36188336</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-2266.97328336</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-2148.90978336</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-2073.55988336</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-2073.55988336</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-2073.55988336</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-2073.94568336</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-2073.94568336</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-2073.98568336</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-2091.39008336</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-2090.66828336</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-2140.68828336</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-2235.67838336</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-2251.99488336</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-2258.14528336</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-2248.792883359999</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-2250.237783359999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-2250.237783359999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-2250.237783359999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-2308.814729649999</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-2308.814729649999</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-3068.357029649999</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-3829.648429649999</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-4604.756029649999</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25894,11 +25894,17 @@
         <v>-5936.220613689998</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>64250</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25927,11 +25933,17 @@
         <v>-6014.974513689997</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>64100</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25968,7 +25980,7 @@
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L775" t="n">
@@ -25999,9 +26011,11 @@
         <v>-5993.138413689998</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>63000</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26036,9 +26050,11 @@
         <v>-5785.310513689998</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>63500</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26307,11 +26323,9 @@
         <v>-6000.641532069997</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>63600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26346,11 +26360,9 @@
         <v>-5972.020532069997</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>63650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26697,11 +26709,9 @@
         <v>-6108.124132069996</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>64200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -26736,11 +26746,9 @@
         <v>-6108.124132069996</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -26775,11 +26783,9 @@
         <v>-6108.124132069996</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -26814,11 +26820,9 @@
         <v>-6079.497032069997</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -26853,11 +26857,9 @@
         <v>-6178.990032069997</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -26892,11 +26894,9 @@
         <v>-6278.990032069997</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -26931,11 +26931,9 @@
         <v>-6220.040654559997</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>64300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27525,11 +27523,9 @@
         <v>-5703.711253939998</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>64000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -28008,11 +28004,9 @@
         <v>-5906.049983049998</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>63800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28047,11 +28041,9 @@
         <v>-5900.249983049998</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>63800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28086,11 +28078,9 @@
         <v>-5900.249983049998</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>63900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28125,11 +28115,9 @@
         <v>-5963.034583049998</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>63900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28203,11 +28191,9 @@
         <v>-6231.079183049998</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>63450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28671,11 +28657,9 @@
         <v>-5905.281383049999</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>63800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28749,11 +28733,9 @@
         <v>-5902.612483049999</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>63850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28827,11 +28809,9 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>63800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28866,11 +28846,9 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>63950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28905,11 +28883,9 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>63950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28944,11 +28920,9 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28983,11 +28957,9 @@
         <v>-5822.158841029999</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -29022,11 +28994,9 @@
         <v>-5853.498841029999</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>64250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29061,11 +29031,9 @@
         <v>-5910.49264103</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>64150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29100,11 +29068,9 @@
         <v>-5806.501941029999</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29139,11 +29105,9 @@
         <v>-5806.763641029999</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>64200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29178,11 +29142,9 @@
         <v>-5777.846380329999</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>64150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29217,11 +29179,9 @@
         <v>-5777.846380329999</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>64250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29256,11 +29216,9 @@
         <v>-5791.880980329999</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>64250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29295,11 +29253,9 @@
         <v>-5805.380180329999</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29312,6 +29268,6 @@
       <c r="M862" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest LTC.xlsx
+++ b/BackTest/2020-01-20 BackTest LTC.xlsx
@@ -1474,7 +1474,7 @@
         <v>-3201.127432120001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3191.127432120001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3305.164032120001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3237.502232120001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3246.472132120001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3018.341032120001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3157.526932120001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3028.657832120001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2643.896401620001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2872.288801620001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2855.171601620001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2869.604601620001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2814.075452630001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2864.075452630001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2783.832052630001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2819.551152630001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2820.178952630001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2862.231552630001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2962.231552630001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2760.928652630001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2718.549252630001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2743.205852630001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2801.482552630001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2793.928952630001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2773.613352630001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2811.705752630001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1319.302652630001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1419.920652630001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1748.320652630001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1581.452452630001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1542.357552630001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1533.969952630001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1414.970152630001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1309.764152630001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1319.456652630001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1322.251352630001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1361.140952630001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1361.121452630001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1492.010752630001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1495.161352630001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1499.300552630001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1600.288552630001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1592.549352630001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1592.715852630001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1591.599652630001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1585.574952630001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1622.873652630002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1665.841452630001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1502.101452630001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1473.207852630001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1469.776952630001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1469.457352630001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1479.597552630001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1479.973552630001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1449.356752630001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1276.318752630001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1277.318752630001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1338.272052630001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1296.787452630001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1306.787452630001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1303.786452630001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1273.698352630001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1352.211252630001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1348.211252630001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1340.635252630001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1144.971452630001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1116.954352630001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1124.717252630001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1176.986152630001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1162.522152630001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1163.335752630001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1169.844952630001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-940.844952630001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-939.909152630001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-938.245152630001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-915.186452630001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-902.338452630001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1102.415652630001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1103.058652630001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1102.058652630001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1098.758652630001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1104.040152630001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-885.0584526300011</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1027.017752630001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1024.617752630001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1166.577052630001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1167.248052630001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1167.266452630001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1063.266452630001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1063.406452630001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1047.553752630001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1052.553752630001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1031.566052630001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1001.024052630001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-976.0240526300012</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-518.078754910001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-515.4135549100009</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-385.3931549100009</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-331.201454910001</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-243.1890549100009</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-338.7473549100009</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-339.5079549100009</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-339.5179549100009</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-339.5279549100009</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-388.0461549100009</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-286.2303549100009</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-304.5212549100009</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-304.5112549100009</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-476.7535549100009</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-464.7535549100009</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-214.7435549100009</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-180.3611549100009</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>835.1276450899991</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>888.1389450899991</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>1018.986445089999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>861.158745089999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>1117.091145089999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>1015.492345089999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>927.5359450899989</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>943.4200450899989</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>898.6492450899989</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>879.1682811699989</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>904.0626811699989</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>887.0455811699989</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>1113.677181169999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>1018.422781169999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>1026.168366879999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>1198.922766879999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>1234.696966879999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>1291.387766879999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>1303.560966879999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>1324.267367439999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>1239.554967439999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>984.0673674399991</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>600.124767439999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>722.915467439999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>722.915467439999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>722.955467439999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>722.945467439999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>699.817167439999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>615.2264674399991</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>580.9283674399991</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>484.9206674399991</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>802.179967439999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>817.502567439999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>970.8695674399989</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>969.4317674399989</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>949.4377674399989</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>910.6639674399988</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>865.9546674399988</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>247.0915788299988</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>150.3620788299989</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>174.3364788299989</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>189.7321788299989</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>180.6982788299989</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>184.6982788299989</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>105.8780788299989</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>127.5362788299989</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>339.6034788299989</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>568.2516788299989</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>574.3378788299989</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>477.1622788299989</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>581.5302788299989</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>578.7076788299989</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>577.725278829999</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>606.7154788299989</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>573.9153788299989</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>558.6144788299989</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>439.9598788299989</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>427.4176788299989</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>406.2630788299989</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>480.6057788299989</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>474.9403788299989</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>489.3122788299989</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-846.7387211700011</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-876.4375211700011</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -25894,2236 +25894,1968 @@
         <v>-5936.220613689998</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="n">
+        <v>1</v>
+      </c>
+      <c r="M773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C774" t="n">
+        <v>63950</v>
+      </c>
+      <c r="D774" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E774" t="n">
+        <v>63850</v>
+      </c>
+      <c r="F774" t="n">
+        <v>78.7539</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-6014.974513689997</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="n">
+        <v>1</v>
+      </c>
+      <c r="M774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C775" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D775" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E775" t="n">
+        <v>62950</v>
+      </c>
+      <c r="F775" t="n">
+        <v>457.6045</v>
+      </c>
+      <c r="G775" t="n">
+        <v>-6472.579013689998</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="n">
+        <v>1</v>
+      </c>
+      <c r="M775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C776" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D776" t="n">
+        <v>63600</v>
+      </c>
+      <c r="E776" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F776" t="n">
+        <v>479.4406</v>
+      </c>
+      <c r="G776" t="n">
+        <v>-5993.138413689998</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="n">
+        <v>1</v>
+      </c>
+      <c r="M776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>63650</v>
+      </c>
+      <c r="C777" t="n">
+        <v>63650</v>
+      </c>
+      <c r="D777" t="n">
+        <v>63700</v>
+      </c>
+      <c r="E777" t="n">
+        <v>63650</v>
+      </c>
+      <c r="F777" t="n">
+        <v>207.8279</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-5785.310513689998</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="n">
+        <v>1</v>
+      </c>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>63650</v>
+      </c>
+      <c r="C778" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D778" t="n">
+        <v>63650</v>
+      </c>
+      <c r="E778" t="n">
+        <v>63400</v>
+      </c>
+      <c r="F778" t="n">
+        <v>22.77580919</v>
+      </c>
+      <c r="G778" t="n">
+        <v>-5808.086322879997</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="n">
+        <v>1</v>
+      </c>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C779" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D779" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E779" t="n">
+        <v>63150</v>
+      </c>
+      <c r="F779" t="n">
+        <v>494.3761</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-6302.462422879998</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>63350</v>
+      </c>
+      <c r="C780" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D780" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E780" t="n">
+        <v>63350</v>
+      </c>
+      <c r="F780" t="n">
+        <v>291.06569081</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-6011.396732069998</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C781" t="n">
+        <v>63950</v>
+      </c>
+      <c r="D781" t="n">
+        <v>63950</v>
+      </c>
+      <c r="E781" t="n">
+        <v>63750</v>
+      </c>
+      <c r="F781" t="n">
+        <v>67.578</v>
+      </c>
+      <c r="G781" t="n">
+        <v>-5943.818732069997</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C782" t="n">
+        <v>63950</v>
+      </c>
+      <c r="D782" t="n">
+        <v>63950</v>
+      </c>
+      <c r="E782" t="n">
+        <v>63800</v>
+      </c>
+      <c r="F782" t="n">
+        <v>20.7935</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-5943.818732069997</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>63950</v>
+      </c>
+      <c r="C783" t="n">
+        <v>63600</v>
+      </c>
+      <c r="D783" t="n">
+        <v>63950</v>
+      </c>
+      <c r="E783" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F783" t="n">
+        <v>137.2101</v>
+      </c>
+      <c r="G783" t="n">
+        <v>-6081.028832069997</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>63750</v>
+      </c>
+      <c r="C784" t="n">
+        <v>63650</v>
+      </c>
+      <c r="D784" t="n">
+        <v>63750</v>
+      </c>
+      <c r="E784" t="n">
+        <v>63650</v>
+      </c>
+      <c r="F784" t="n">
+        <v>80.3873</v>
+      </c>
+      <c r="G784" t="n">
+        <v>-6000.641532069997</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="n">
+        <v>1</v>
+      </c>
+      <c r="M784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>63750</v>
+      </c>
+      <c r="C785" t="n">
+        <v>63850</v>
+      </c>
+      <c r="D785" t="n">
+        <v>63850</v>
+      </c>
+      <c r="E785" t="n">
+        <v>63750</v>
+      </c>
+      <c r="F785" t="n">
+        <v>28.621</v>
+      </c>
+      <c r="G785" t="n">
+        <v>-5972.020532069997</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="n">
+        <v>1</v>
+      </c>
+      <c r="M785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>63850</v>
+      </c>
+      <c r="C786" t="n">
+        <v>63650</v>
+      </c>
+      <c r="D786" t="n">
+        <v>63850</v>
+      </c>
+      <c r="E786" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F786" t="n">
+        <v>256.0436</v>
+      </c>
+      <c r="G786" t="n">
+        <v>-6228.064132069997</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="n">
+        <v>1</v>
+      </c>
+      <c r="M786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C787" t="n">
+        <v>63600</v>
+      </c>
+      <c r="D787" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E787" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="G787" t="n">
+        <v>-6228.440832069997</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="n">
+        <v>1</v>
+      </c>
+      <c r="M787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C788" t="n">
+        <v>63600</v>
+      </c>
+      <c r="D788" t="n">
+        <v>63600</v>
+      </c>
+      <c r="E788" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F788" t="n">
+        <v>1</v>
+      </c>
+      <c r="G788" t="n">
+        <v>-6228.440832069997</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="n">
+        <v>1</v>
+      </c>
+      <c r="M788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C789" t="n">
+        <v>63600</v>
+      </c>
+      <c r="D789" t="n">
+        <v>63600</v>
+      </c>
+      <c r="E789" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F789" t="n">
+        <v>87.1952</v>
+      </c>
+      <c r="G789" t="n">
+        <v>-6228.440832069997</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="n">
+        <v>1</v>
+      </c>
+      <c r="M789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>63500</v>
+      </c>
+      <c r="C790" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D790" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E790" t="n">
+        <v>63400</v>
+      </c>
+      <c r="F790" t="n">
+        <v>31.4149</v>
+      </c>
+      <c r="G790" t="n">
+        <v>-6259.855732069997</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="n">
+        <v>1</v>
+      </c>
+      <c r="M790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>63700</v>
+      </c>
+      <c r="C791" t="n">
+        <v>63850</v>
+      </c>
+      <c r="D791" t="n">
+        <v>63850</v>
+      </c>
+      <c r="E791" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F791" t="n">
+        <v>48.937</v>
+      </c>
+      <c r="G791" t="n">
+        <v>-6210.918732069997</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="n">
+        <v>1</v>
+      </c>
+      <c r="M791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>63900</v>
+      </c>
+      <c r="C792" t="n">
+        <v>64050</v>
+      </c>
+      <c r="D792" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E792" t="n">
+        <v>63900</v>
+      </c>
+      <c r="F792" t="n">
+        <v>44.2864</v>
+      </c>
+      <c r="G792" t="n">
+        <v>-6166.632332069997</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="n">
+        <v>1</v>
+      </c>
+      <c r="M792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C793" t="n">
+        <v>64200</v>
+      </c>
+      <c r="D793" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E793" t="n">
+        <v>64050</v>
+      </c>
+      <c r="F793" t="n">
+        <v>7.2252</v>
+      </c>
+      <c r="G793" t="n">
+        <v>-6159.407132069997</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="n">
+        <v>1</v>
+      </c>
+      <c r="M793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C794" t="n">
+        <v>64350</v>
+      </c>
+      <c r="D794" t="n">
+        <v>64350</v>
+      </c>
+      <c r="E794" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F794" t="n">
+        <v>51.283</v>
+      </c>
+      <c r="G794" t="n">
+        <v>-6108.124132069996</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="n">
+        <v>1</v>
+      </c>
+      <c r="M794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>64350</v>
+      </c>
+      <c r="C795" t="n">
+        <v>64350</v>
+      </c>
+      <c r="D795" t="n">
+        <v>64350</v>
+      </c>
+      <c r="E795" t="n">
+        <v>64300</v>
+      </c>
+      <c r="F795" t="n">
+        <v>64.0676</v>
+      </c>
+      <c r="G795" t="n">
+        <v>-6108.124132069996</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="n">
+        <v>1</v>
+      </c>
+      <c r="M795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C796" t="n">
+        <v>64350</v>
+      </c>
+      <c r="D796" t="n">
+        <v>64350</v>
+      </c>
+      <c r="E796" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F796" t="n">
+        <v>89.4585</v>
+      </c>
+      <c r="G796" t="n">
+        <v>-6108.124132069996</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="n">
+        <v>1</v>
+      </c>
+      <c r="M796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>64400</v>
+      </c>
+      <c r="C797" t="n">
+        <v>64400</v>
+      </c>
+      <c r="D797" t="n">
+        <v>64400</v>
+      </c>
+      <c r="E797" t="n">
+        <v>64400</v>
+      </c>
+      <c r="F797" t="n">
+        <v>28.6271</v>
+      </c>
+      <c r="G797" t="n">
+        <v>-6079.497032069997</v>
+      </c>
+      <c r="H797" t="n">
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="n">
+        <v>1</v>
+      </c>
+      <c r="M797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>64300</v>
+      </c>
+      <c r="C798" t="n">
+        <v>64350</v>
+      </c>
+      <c r="D798" t="n">
+        <v>64350</v>
+      </c>
+      <c r="E798" t="n">
+        <v>64300</v>
+      </c>
+      <c r="F798" t="n">
+        <v>99.49299999999999</v>
+      </c>
+      <c r="G798" t="n">
+        <v>-6178.990032069997</v>
+      </c>
+      <c r="H798" t="n">
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="n">
+        <v>1</v>
+      </c>
+      <c r="M798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>64300</v>
+      </c>
+      <c r="C799" t="n">
+        <v>64300</v>
+      </c>
+      <c r="D799" t="n">
+        <v>64300</v>
+      </c>
+      <c r="E799" t="n">
+        <v>64300</v>
+      </c>
+      <c r="F799" t="n">
+        <v>100</v>
+      </c>
+      <c r="G799" t="n">
+        <v>-6278.990032069997</v>
+      </c>
+      <c r="H799" t="n">
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="n">
+        <v>1</v>
+      </c>
+      <c r="M799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>64500</v>
+      </c>
+      <c r="C800" t="n">
+        <v>64550</v>
+      </c>
+      <c r="D800" t="n">
+        <v>64550</v>
+      </c>
+      <c r="E800" t="n">
+        <v>64500</v>
+      </c>
+      <c r="F800" t="n">
+        <v>58.94937751</v>
+      </c>
+      <c r="G800" t="n">
+        <v>-6220.040654559997</v>
+      </c>
+      <c r="H800" t="n">
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="n">
+        <v>1</v>
+      </c>
+      <c r="M800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>64550</v>
+      </c>
+      <c r="C801" t="n">
+        <v>64550</v>
+      </c>
+      <c r="D801" t="n">
+        <v>64550</v>
+      </c>
+      <c r="E801" t="n">
+        <v>64550</v>
+      </c>
+      <c r="F801" t="n">
+        <v>2.1862</v>
+      </c>
+      <c r="G801" t="n">
+        <v>-6220.040654559997</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="n">
+        <v>1</v>
+      </c>
+      <c r="M801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>64450</v>
+      </c>
+      <c r="C802" t="n">
+        <v>64650</v>
+      </c>
+      <c r="D802" t="n">
+        <v>64650</v>
+      </c>
+      <c r="E802" t="n">
+        <v>64450</v>
+      </c>
+      <c r="F802" t="n">
+        <v>144.4827</v>
+      </c>
+      <c r="G802" t="n">
+        <v>-6075.557954559998</v>
+      </c>
+      <c r="H802" t="n">
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="n">
+        <v>1</v>
+      </c>
+      <c r="M802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>64600</v>
+      </c>
+      <c r="C803" t="n">
+        <v>64350</v>
+      </c>
+      <c r="D803" t="n">
+        <v>64600</v>
+      </c>
+      <c r="E803" t="n">
+        <v>64350</v>
+      </c>
+      <c r="F803" t="n">
+        <v>202.2232</v>
+      </c>
+      <c r="G803" t="n">
+        <v>-6277.781154559998</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="n">
+        <v>1</v>
+      </c>
+      <c r="M803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>64350</v>
+      </c>
+      <c r="C804" t="n">
+        <v>64400</v>
+      </c>
+      <c r="D804" t="n">
+        <v>64450</v>
+      </c>
+      <c r="E804" t="n">
+        <v>64150</v>
+      </c>
+      <c r="F804" t="n">
+        <v>497.18800062</v>
+      </c>
+      <c r="G804" t="n">
+        <v>-5780.593153939998</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="n">
+        <v>1</v>
+      </c>
+      <c r="M804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
         <v>64250</v>
       </c>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
+      <c r="C805" t="n">
+        <v>64250</v>
+      </c>
+      <c r="D805" t="n">
+        <v>64350</v>
+      </c>
+      <c r="E805" t="n">
+        <v>64250</v>
+      </c>
+      <c r="F805" t="n">
+        <v>47.2052</v>
+      </c>
+      <c r="G805" t="n">
+        <v>-5827.798353939998</v>
+      </c>
+      <c r="H805" t="n">
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="n">
+        <v>1</v>
+      </c>
+      <c r="M805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>64250</v>
+      </c>
+      <c r="C806" t="n">
+        <v>64150</v>
+      </c>
+      <c r="D806" t="n">
+        <v>64250</v>
+      </c>
+      <c r="E806" t="n">
+        <v>64150</v>
+      </c>
+      <c r="F806" t="n">
+        <v>21.4805</v>
+      </c>
+      <c r="G806" t="n">
+        <v>-5849.278853939998</v>
+      </c>
+      <c r="H806" t="n">
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="n">
+        <v>1</v>
+      </c>
+      <c r="M806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>64250</v>
+      </c>
+      <c r="C807" t="n">
+        <v>64400</v>
+      </c>
+      <c r="D807" t="n">
+        <v>64400</v>
+      </c>
+      <c r="E807" t="n">
+        <v>64200</v>
+      </c>
+      <c r="F807" t="n">
+        <v>88.96129999999999</v>
+      </c>
+      <c r="G807" t="n">
+        <v>-5760.317553939998</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="n">
+        <v>1</v>
+      </c>
+      <c r="M807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>64500</v>
+      </c>
+      <c r="C808" t="n">
+        <v>64450</v>
+      </c>
+      <c r="D808" t="n">
+        <v>64500</v>
+      </c>
+      <c r="E808" t="n">
+        <v>64400</v>
+      </c>
+      <c r="F808" t="n">
+        <v>65.6344</v>
+      </c>
+      <c r="G808" t="n">
+        <v>-5694.683153939998</v>
+      </c>
+      <c r="H808" t="n">
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="n">
+        <v>1</v>
+      </c>
+      <c r="M808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>64450</v>
+      </c>
+      <c r="C809" t="n">
+        <v>64350</v>
+      </c>
+      <c r="D809" t="n">
+        <v>64550</v>
+      </c>
+      <c r="E809" t="n">
+        <v>64350</v>
+      </c>
+      <c r="F809" t="n">
+        <v>25.4026</v>
+      </c>
+      <c r="G809" t="n">
+        <v>-5720.085753939999</v>
+      </c>
+      <c r="H809" t="n">
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="n">
+        <v>1</v>
+      </c>
+      <c r="M809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C810" t="n">
+        <v>64200</v>
+      </c>
+      <c r="D810" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E810" t="n">
+        <v>64200</v>
+      </c>
+      <c r="F810" t="n">
+        <v>18.0641</v>
+      </c>
+      <c r="G810" t="n">
+        <v>-5738.149853939998</v>
+      </c>
+      <c r="H810" t="n">
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="n">
+        <v>1</v>
+      </c>
+      <c r="M810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C811" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D811" t="n">
+        <v>64300</v>
+      </c>
+      <c r="E811" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F811" t="n">
+        <v>3.2068</v>
+      </c>
+      <c r="G811" t="n">
+        <v>-5741.356653939998</v>
+      </c>
+      <c r="H811" t="n">
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="n">
+        <v>1</v>
+      </c>
+      <c r="M811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C812" t="n">
+        <v>63950</v>
+      </c>
+      <c r="D812" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E812" t="n">
+        <v>63950</v>
+      </c>
+      <c r="F812" t="n">
+        <v>65.6664</v>
+      </c>
+      <c r="G812" t="n">
+        <v>-5807.023053939998</v>
+      </c>
+      <c r="H812" t="n">
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="n">
+        <v>1</v>
+      </c>
+      <c r="M812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="n">
+        <v>63950</v>
+      </c>
+      <c r="C813" t="n">
+        <v>64050</v>
+      </c>
+      <c r="D813" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E813" t="n">
+        <v>63950</v>
+      </c>
+      <c r="F813" t="n">
+        <v>60.437</v>
+      </c>
+      <c r="G813" t="n">
+        <v>-5746.586053939998</v>
+      </c>
+      <c r="H813" t="n">
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="n">
+        <v>1</v>
+      </c>
+      <c r="M813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>64050</v>
+      </c>
+      <c r="C814" t="n">
+        <v>64050</v>
+      </c>
+      <c r="D814" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E814" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F814" t="n">
+        <v>85.5133</v>
+      </c>
+      <c r="G814" t="n">
+        <v>-5746.586053939998</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="n">
+        <v>1</v>
+      </c>
+      <c r="M814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>63950</v>
+      </c>
+      <c r="C815" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D815" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E815" t="n">
+        <v>63900</v>
+      </c>
+      <c r="F815" t="n">
+        <v>23.7035</v>
+      </c>
+      <c r="G815" t="n">
+        <v>-5770.289553939998</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="n">
+        <v>1</v>
+      </c>
+      <c r="M815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="n">
+        <v>64250</v>
+      </c>
+      <c r="C816" t="n">
+        <v>64250</v>
+      </c>
+      <c r="D816" t="n">
+        <v>64250</v>
+      </c>
+      <c r="E816" t="n">
+        <v>64250</v>
+      </c>
+      <c r="F816" t="n">
+        <v>66.5783</v>
+      </c>
+      <c r="G816" t="n">
+        <v>-5703.711253939998</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="n">
+        <v>1</v>
+      </c>
+      <c r="M816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C817" t="n">
+        <v>64250</v>
+      </c>
+      <c r="D817" t="n">
+        <v>64250</v>
+      </c>
+      <c r="E817" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G817" t="n">
+        <v>-5703.711253939998</v>
+      </c>
+      <c r="H817" t="n">
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="n">
+        <v>1</v>
+      </c>
+      <c r="M817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C818" t="n">
+        <v>64100</v>
+      </c>
+      <c r="D818" t="n">
+        <v>64100</v>
+      </c>
+      <c r="E818" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="G818" t="n">
+        <v>-5703.730753939998</v>
+      </c>
+      <c r="H818" t="n">
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="n">
+        <v>1</v>
+      </c>
+      <c r="M818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C819" t="n">
+        <v>64100</v>
+      </c>
+      <c r="D819" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E819" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F819" t="n">
+        <v>7</v>
+      </c>
+      <c r="G819" t="n">
+        <v>-5703.730753939998</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="n">
+        <v>1</v>
+      </c>
+      <c r="M819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C820" t="n">
+        <v>64100</v>
+      </c>
+      <c r="D820" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E820" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F820" t="n">
+        <v>100.1997</v>
+      </c>
+      <c r="G820" t="n">
+        <v>-5703.730753939998</v>
+      </c>
+      <c r="H820" t="n">
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="n">
+        <v>1</v>
+      </c>
+      <c r="M820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C821" t="n">
+        <v>64100</v>
+      </c>
+      <c r="D821" t="n">
+        <v>64100</v>
+      </c>
+      <c r="E821" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F821" t="n">
+        <v>80</v>
+      </c>
+      <c r="G821" t="n">
+        <v>-5703.730753939998</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="n">
+        <v>1</v>
+      </c>
+      <c r="M821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>64050</v>
+      </c>
+      <c r="C822" t="n">
+        <v>64050</v>
+      </c>
+      <c r="D822" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E822" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F822" t="n">
+        <v>10.11672911</v>
+      </c>
+      <c r="G822" t="n">
+        <v>-5713.847483049998</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="n">
+        <v>1</v>
+      </c>
+      <c r="M822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>63950</v>
+      </c>
+      <c r="C823" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D823" t="n">
+        <v>63950</v>
+      </c>
+      <c r="E823" t="n">
+        <v>63900</v>
+      </c>
+      <c r="F823" t="n">
+        <v>6.1008</v>
+      </c>
+      <c r="G823" t="n">
+        <v>-5719.948283049998</v>
+      </c>
+      <c r="H823" t="n">
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="n">
+        <v>1</v>
+      </c>
+      <c r="M823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>64050</v>
+      </c>
+      <c r="C824" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D824" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E824" t="n">
+        <v>63800</v>
+      </c>
+      <c r="F824" t="n">
+        <v>97.92870000000001</v>
+      </c>
+      <c r="G824" t="n">
+        <v>-5817.876983049999</v>
+      </c>
+      <c r="H824" t="n">
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="n">
+        <v>1</v>
+      </c>
+      <c r="M824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>63750</v>
+      </c>
+      <c r="C825" t="n">
+        <v>63750</v>
+      </c>
+      <c r="D825" t="n">
+        <v>63750</v>
+      </c>
+      <c r="E825" t="n">
+        <v>63750</v>
+      </c>
+      <c r="F825" t="n">
+        <v>111.3813</v>
+      </c>
+      <c r="G825" t="n">
+        <v>-5929.258283049999</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="n">
+        <v>1</v>
+      </c>
+      <c r="M825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>63750</v>
+      </c>
+      <c r="C826" t="n">
+        <v>63750</v>
+      </c>
+      <c r="D826" t="n">
+        <v>63750</v>
+      </c>
+      <c r="E826" t="n">
+        <v>63650</v>
+      </c>
+      <c r="F826" t="n">
+        <v>14.2704</v>
+      </c>
+      <c r="G826" t="n">
+        <v>-5929.258283049999</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C827" t="n">
+        <v>63700</v>
+      </c>
+      <c r="D827" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E827" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F827" t="n">
+        <v>23.1127</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-5952.370983049998</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C828" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D828" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E828" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F828" t="n">
+        <v>46.321</v>
+      </c>
+      <c r="G828" t="n">
+        <v>-5906.049983049998</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>63550</v>
+      </c>
+      <c r="C829" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D829" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E829" t="n">
+        <v>63550</v>
+      </c>
+      <c r="F829" t="n">
+        <v>43.7026</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-5906.049983049998</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>63900</v>
+      </c>
+      <c r="C830" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D830" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E830" t="n">
+        <v>63900</v>
+      </c>
+      <c r="F830" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-5900.249983049998</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>63900</v>
+      </c>
+      <c r="C831" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D831" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E831" t="n">
+        <v>63900</v>
+      </c>
+      <c r="F831" t="n">
+        <v>69.31189999999999</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-5900.249983049998</v>
+      </c>
+      <c r="H831" t="n">
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>63900</v>
+      </c>
+      <c r="J831" t="n">
+        <v>63900</v>
+      </c>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>63750</v>
+      </c>
+      <c r="C832" t="n">
+        <v>63750</v>
+      </c>
+      <c r="D832" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E832" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F832" t="n">
+        <v>62.7846</v>
+      </c>
+      <c r="G832" t="n">
+        <v>-5963.034583049998</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>63900</v>
+      </c>
+      <c r="K832" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L773" t="n">
-        <v>1</v>
-      </c>
-      <c r="M773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>64000</v>
-      </c>
-      <c r="C774" t="n">
-        <v>63950</v>
-      </c>
-      <c r="D774" t="n">
-        <v>64000</v>
-      </c>
-      <c r="E774" t="n">
-        <v>63850</v>
-      </c>
-      <c r="F774" t="n">
-        <v>78.7539</v>
-      </c>
-      <c r="G774" t="n">
-        <v>-6014.974513689997</v>
-      </c>
-      <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>64100</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L774" t="n">
-        <v>1</v>
-      </c>
-      <c r="M774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C775" t="n">
-        <v>63000</v>
-      </c>
-      <c r="D775" t="n">
-        <v>63900</v>
-      </c>
-      <c r="E775" t="n">
-        <v>62950</v>
-      </c>
-      <c r="F775" t="n">
-        <v>457.6045</v>
-      </c>
-      <c r="G775" t="n">
-        <v>-6472.579013689998</v>
-      </c>
-      <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>63950</v>
-      </c>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L775" t="n">
-        <v>1</v>
-      </c>
-      <c r="M775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>63000</v>
-      </c>
-      <c r="C776" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D776" t="n">
-        <v>63600</v>
-      </c>
-      <c r="E776" t="n">
-        <v>63000</v>
-      </c>
-      <c r="F776" t="n">
-        <v>479.4406</v>
-      </c>
-      <c r="G776" t="n">
-        <v>-5993.138413689998</v>
-      </c>
-      <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>63000</v>
-      </c>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L776" t="n">
-        <v>1</v>
-      </c>
-      <c r="M776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>63650</v>
-      </c>
-      <c r="C777" t="n">
-        <v>63650</v>
-      </c>
-      <c r="D777" t="n">
-        <v>63700</v>
-      </c>
-      <c r="E777" t="n">
-        <v>63650</v>
-      </c>
-      <c r="F777" t="n">
-        <v>207.8279</v>
-      </c>
-      <c r="G777" t="n">
-        <v>-5785.310513689998</v>
-      </c>
-      <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>63500</v>
-      </c>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>63650</v>
-      </c>
-      <c r="C778" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D778" t="n">
-        <v>63650</v>
-      </c>
-      <c r="E778" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F778" t="n">
-        <v>22.77580919</v>
-      </c>
-      <c r="G778" t="n">
-        <v>-5808.086322879997</v>
-      </c>
-      <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>63650</v>
-      </c>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L778" t="n">
-        <v>1</v>
-      </c>
-      <c r="M778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C779" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D779" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E779" t="n">
-        <v>63150</v>
-      </c>
-      <c r="F779" t="n">
-        <v>494.3761</v>
-      </c>
-      <c r="G779" t="n">
-        <v>-6302.462422879998</v>
-      </c>
-      <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>63400</v>
-      </c>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>63350</v>
-      </c>
-      <c r="C780" t="n">
-        <v>63800</v>
-      </c>
-      <c r="D780" t="n">
-        <v>63800</v>
-      </c>
-      <c r="E780" t="n">
-        <v>63350</v>
-      </c>
-      <c r="F780" t="n">
-        <v>291.06569081</v>
-      </c>
-      <c r="G780" t="n">
-        <v>-6011.396732069998</v>
-      </c>
-      <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>63300</v>
-      </c>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C781" t="n">
-        <v>63950</v>
-      </c>
-      <c r="D781" t="n">
-        <v>63950</v>
-      </c>
-      <c r="E781" t="n">
-        <v>63750</v>
-      </c>
-      <c r="F781" t="n">
-        <v>67.578</v>
-      </c>
-      <c r="G781" t="n">
-        <v>-5943.818732069997</v>
-      </c>
-      <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>63800</v>
-      </c>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C782" t="n">
-        <v>63950</v>
-      </c>
-      <c r="D782" t="n">
-        <v>63950</v>
-      </c>
-      <c r="E782" t="n">
-        <v>63800</v>
-      </c>
-      <c r="F782" t="n">
-        <v>20.7935</v>
-      </c>
-      <c r="G782" t="n">
-        <v>-5943.818732069997</v>
-      </c>
-      <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>63950</v>
-      </c>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>63950</v>
-      </c>
-      <c r="C783" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D783" t="n">
-        <v>63950</v>
-      </c>
-      <c r="E783" t="n">
-        <v>63600</v>
-      </c>
-      <c r="F783" t="n">
-        <v>137.2101</v>
-      </c>
-      <c r="G783" t="n">
-        <v>-6081.028832069997</v>
-      </c>
-      <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>63950</v>
-      </c>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>63750</v>
-      </c>
-      <c r="C784" t="n">
-        <v>63650</v>
-      </c>
-      <c r="D784" t="n">
-        <v>63750</v>
-      </c>
-      <c r="E784" t="n">
-        <v>63650</v>
-      </c>
-      <c r="F784" t="n">
-        <v>80.3873</v>
-      </c>
-      <c r="G784" t="n">
-        <v>-6000.641532069997</v>
-      </c>
-      <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L784" t="n">
-        <v>1</v>
-      </c>
-      <c r="M784" t="inlineStr"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>63750</v>
-      </c>
-      <c r="C785" t="n">
-        <v>63850</v>
-      </c>
-      <c r="D785" t="n">
-        <v>63850</v>
-      </c>
-      <c r="E785" t="n">
-        <v>63750</v>
-      </c>
-      <c r="F785" t="n">
-        <v>28.621</v>
-      </c>
-      <c r="G785" t="n">
-        <v>-5972.020532069997</v>
-      </c>
-      <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L785" t="n">
-        <v>1</v>
-      </c>
-      <c r="M785" t="inlineStr"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>63850</v>
-      </c>
-      <c r="C786" t="n">
-        <v>63650</v>
-      </c>
-      <c r="D786" t="n">
-        <v>63850</v>
-      </c>
-      <c r="E786" t="n">
-        <v>63600</v>
-      </c>
-      <c r="F786" t="n">
-        <v>256.0436</v>
-      </c>
-      <c r="G786" t="n">
-        <v>-6228.064132069997</v>
-      </c>
-      <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>63850</v>
-      </c>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L786" t="n">
-        <v>1</v>
-      </c>
-      <c r="M786" t="inlineStr"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C787" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D787" t="n">
-        <v>63800</v>
-      </c>
-      <c r="E787" t="n">
-        <v>63600</v>
-      </c>
-      <c r="F787" t="n">
-        <v>0.3767</v>
-      </c>
-      <c r="G787" t="n">
-        <v>-6228.440832069997</v>
-      </c>
-      <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>63650</v>
-      </c>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L787" t="n">
-        <v>1</v>
-      </c>
-      <c r="M787" t="inlineStr"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="n">
-        <v>63600</v>
-      </c>
-      <c r="C788" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D788" t="n">
-        <v>63600</v>
-      </c>
-      <c r="E788" t="n">
-        <v>63600</v>
-      </c>
-      <c r="F788" t="n">
-        <v>1</v>
-      </c>
-      <c r="G788" t="n">
-        <v>-6228.440832069997</v>
-      </c>
-      <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>63600</v>
-      </c>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L788" t="n">
-        <v>1</v>
-      </c>
-      <c r="M788" t="inlineStr"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="n">
-        <v>63600</v>
-      </c>
-      <c r="C789" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D789" t="n">
-        <v>63600</v>
-      </c>
-      <c r="E789" t="n">
-        <v>63600</v>
-      </c>
-      <c r="F789" t="n">
-        <v>87.1952</v>
-      </c>
-      <c r="G789" t="n">
-        <v>-6228.440832069997</v>
-      </c>
-      <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>63600</v>
-      </c>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L789" t="n">
-        <v>1</v>
-      </c>
-      <c r="M789" t="inlineStr"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C790" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D790" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E790" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F790" t="n">
-        <v>31.4149</v>
-      </c>
-      <c r="G790" t="n">
-        <v>-6259.855732069997</v>
-      </c>
-      <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>63600</v>
-      </c>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L790" t="n">
-        <v>1</v>
-      </c>
-      <c r="M790" t="inlineStr"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="n">
-        <v>63700</v>
-      </c>
-      <c r="C791" t="n">
-        <v>63850</v>
-      </c>
-      <c r="D791" t="n">
-        <v>63850</v>
-      </c>
-      <c r="E791" t="n">
-        <v>63700</v>
-      </c>
-      <c r="F791" t="n">
-        <v>48.937</v>
-      </c>
-      <c r="G791" t="n">
-        <v>-6210.918732069997</v>
-      </c>
-      <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>63500</v>
-      </c>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L791" t="n">
-        <v>1</v>
-      </c>
-      <c r="M791" t="inlineStr"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="n">
-        <v>63900</v>
-      </c>
-      <c r="C792" t="n">
-        <v>64050</v>
-      </c>
-      <c r="D792" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E792" t="n">
-        <v>63900</v>
-      </c>
-      <c r="F792" t="n">
-        <v>44.2864</v>
-      </c>
-      <c r="G792" t="n">
-        <v>-6166.632332069997</v>
-      </c>
-      <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>63850</v>
-      </c>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L792" t="n">
-        <v>1</v>
-      </c>
-      <c r="M792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="n">
-        <v>64100</v>
-      </c>
-      <c r="C793" t="n">
-        <v>64200</v>
-      </c>
-      <c r="D793" t="n">
-        <v>64200</v>
-      </c>
-      <c r="E793" t="n">
-        <v>64050</v>
-      </c>
-      <c r="F793" t="n">
-        <v>7.2252</v>
-      </c>
-      <c r="G793" t="n">
-        <v>-6159.407132069997</v>
-      </c>
-      <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>64050</v>
-      </c>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L793" t="n">
-        <v>1</v>
-      </c>
-      <c r="M793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="n">
-        <v>64200</v>
-      </c>
-      <c r="C794" t="n">
-        <v>64350</v>
-      </c>
-      <c r="D794" t="n">
-        <v>64350</v>
-      </c>
-      <c r="E794" t="n">
-        <v>64100</v>
-      </c>
-      <c r="F794" t="n">
-        <v>51.283</v>
-      </c>
-      <c r="G794" t="n">
-        <v>-6108.124132069996</v>
-      </c>
-      <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L794" t="n">
-        <v>1</v>
-      </c>
-      <c r="M794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="n">
-        <v>64350</v>
-      </c>
-      <c r="C795" t="n">
-        <v>64350</v>
-      </c>
-      <c r="D795" t="n">
-        <v>64350</v>
-      </c>
-      <c r="E795" t="n">
-        <v>64300</v>
-      </c>
-      <c r="F795" t="n">
-        <v>64.0676</v>
-      </c>
-      <c r="G795" t="n">
-        <v>-6108.124132069996</v>
-      </c>
-      <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L795" t="n">
-        <v>1</v>
-      </c>
-      <c r="M795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="n">
-        <v>64100</v>
-      </c>
-      <c r="C796" t="n">
-        <v>64350</v>
-      </c>
-      <c r="D796" t="n">
-        <v>64350</v>
-      </c>
-      <c r="E796" t="n">
-        <v>64100</v>
-      </c>
-      <c r="F796" t="n">
-        <v>89.4585</v>
-      </c>
-      <c r="G796" t="n">
-        <v>-6108.124132069996</v>
-      </c>
-      <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L796" t="n">
-        <v>1</v>
-      </c>
-      <c r="M796" t="inlineStr"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="n">
-        <v>64400</v>
-      </c>
-      <c r="C797" t="n">
-        <v>64400</v>
-      </c>
-      <c r="D797" t="n">
-        <v>64400</v>
-      </c>
-      <c r="E797" t="n">
-        <v>64400</v>
-      </c>
-      <c r="F797" t="n">
-        <v>28.6271</v>
-      </c>
-      <c r="G797" t="n">
-        <v>-6079.497032069997</v>
-      </c>
-      <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L797" t="n">
-        <v>1</v>
-      </c>
-      <c r="M797" t="inlineStr"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="n">
-        <v>64300</v>
-      </c>
-      <c r="C798" t="n">
-        <v>64350</v>
-      </c>
-      <c r="D798" t="n">
-        <v>64350</v>
-      </c>
-      <c r="E798" t="n">
-        <v>64300</v>
-      </c>
-      <c r="F798" t="n">
-        <v>99.49299999999999</v>
-      </c>
-      <c r="G798" t="n">
-        <v>-6178.990032069997</v>
-      </c>
-      <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L798" t="n">
-        <v>1</v>
-      </c>
-      <c r="M798" t="inlineStr"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="n">
-        <v>64300</v>
-      </c>
-      <c r="C799" t="n">
-        <v>64300</v>
-      </c>
-      <c r="D799" t="n">
-        <v>64300</v>
-      </c>
-      <c r="E799" t="n">
-        <v>64300</v>
-      </c>
-      <c r="F799" t="n">
-        <v>100</v>
-      </c>
-      <c r="G799" t="n">
-        <v>-6278.990032069997</v>
-      </c>
-      <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L799" t="n">
-        <v>1</v>
-      </c>
-      <c r="M799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="n">
-        <v>64500</v>
-      </c>
-      <c r="C800" t="n">
-        <v>64550</v>
-      </c>
-      <c r="D800" t="n">
-        <v>64550</v>
-      </c>
-      <c r="E800" t="n">
-        <v>64500</v>
-      </c>
-      <c r="F800" t="n">
-        <v>58.94937751</v>
-      </c>
-      <c r="G800" t="n">
-        <v>-6220.040654559997</v>
-      </c>
-      <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L800" t="n">
-        <v>1</v>
-      </c>
-      <c r="M800" t="inlineStr"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="n">
-        <v>64550</v>
-      </c>
-      <c r="C801" t="n">
-        <v>64550</v>
-      </c>
-      <c r="D801" t="n">
-        <v>64550</v>
-      </c>
-      <c r="E801" t="n">
-        <v>64550</v>
-      </c>
-      <c r="F801" t="n">
-        <v>2.1862</v>
-      </c>
-      <c r="G801" t="n">
-        <v>-6220.040654559997</v>
-      </c>
-      <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L801" t="n">
-        <v>1</v>
-      </c>
-      <c r="M801" t="inlineStr"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="n">
-        <v>64450</v>
-      </c>
-      <c r="C802" t="n">
-        <v>64650</v>
-      </c>
-      <c r="D802" t="n">
-        <v>64650</v>
-      </c>
-      <c r="E802" t="n">
-        <v>64450</v>
-      </c>
-      <c r="F802" t="n">
-        <v>144.4827</v>
-      </c>
-      <c r="G802" t="n">
-        <v>-6075.557954559998</v>
-      </c>
-      <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L802" t="n">
-        <v>1</v>
-      </c>
-      <c r="M802" t="inlineStr"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-      <c r="B803" t="n">
-        <v>64600</v>
-      </c>
-      <c r="C803" t="n">
-        <v>64350</v>
-      </c>
-      <c r="D803" t="n">
-        <v>64600</v>
-      </c>
-      <c r="E803" t="n">
-        <v>64350</v>
-      </c>
-      <c r="F803" t="n">
-        <v>202.2232</v>
-      </c>
-      <c r="G803" t="n">
-        <v>-6277.781154559998</v>
-      </c>
-      <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L803" t="n">
-        <v>1</v>
-      </c>
-      <c r="M803" t="inlineStr"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-      <c r="B804" t="n">
-        <v>64350</v>
-      </c>
-      <c r="C804" t="n">
-        <v>64400</v>
-      </c>
-      <c r="D804" t="n">
-        <v>64450</v>
-      </c>
-      <c r="E804" t="n">
-        <v>64150</v>
-      </c>
-      <c r="F804" t="n">
-        <v>497.18800062</v>
-      </c>
-      <c r="G804" t="n">
-        <v>-5780.593153939998</v>
-      </c>
-      <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L804" t="n">
-        <v>1</v>
-      </c>
-      <c r="M804" t="inlineStr"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-      <c r="B805" t="n">
-        <v>64250</v>
-      </c>
-      <c r="C805" t="n">
-        <v>64250</v>
-      </c>
-      <c r="D805" t="n">
-        <v>64350</v>
-      </c>
-      <c r="E805" t="n">
-        <v>64250</v>
-      </c>
-      <c r="F805" t="n">
-        <v>47.2052</v>
-      </c>
-      <c r="G805" t="n">
-        <v>-5827.798353939998</v>
-      </c>
-      <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L805" t="n">
-        <v>1</v>
-      </c>
-      <c r="M805" t="inlineStr"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="B806" t="n">
-        <v>64250</v>
-      </c>
-      <c r="C806" t="n">
-        <v>64150</v>
-      </c>
-      <c r="D806" t="n">
-        <v>64250</v>
-      </c>
-      <c r="E806" t="n">
-        <v>64150</v>
-      </c>
-      <c r="F806" t="n">
-        <v>21.4805</v>
-      </c>
-      <c r="G806" t="n">
-        <v>-5849.278853939998</v>
-      </c>
-      <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L806" t="n">
-        <v>1</v>
-      </c>
-      <c r="M806" t="inlineStr"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B807" t="n">
-        <v>64250</v>
-      </c>
-      <c r="C807" t="n">
-        <v>64400</v>
-      </c>
-      <c r="D807" t="n">
-        <v>64400</v>
-      </c>
-      <c r="E807" t="n">
-        <v>64200</v>
-      </c>
-      <c r="F807" t="n">
-        <v>88.96129999999999</v>
-      </c>
-      <c r="G807" t="n">
-        <v>-5760.317553939998</v>
-      </c>
-      <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L807" t="n">
-        <v>1</v>
-      </c>
-      <c r="M807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="B808" t="n">
-        <v>64500</v>
-      </c>
-      <c r="C808" t="n">
-        <v>64450</v>
-      </c>
-      <c r="D808" t="n">
-        <v>64500</v>
-      </c>
-      <c r="E808" t="n">
-        <v>64400</v>
-      </c>
-      <c r="F808" t="n">
-        <v>65.6344</v>
-      </c>
-      <c r="G808" t="n">
-        <v>-5694.683153939998</v>
-      </c>
-      <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L808" t="n">
-        <v>1</v>
-      </c>
-      <c r="M808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="B809" t="n">
-        <v>64450</v>
-      </c>
-      <c r="C809" t="n">
-        <v>64350</v>
-      </c>
-      <c r="D809" t="n">
-        <v>64550</v>
-      </c>
-      <c r="E809" t="n">
-        <v>64350</v>
-      </c>
-      <c r="F809" t="n">
-        <v>25.4026</v>
-      </c>
-      <c r="G809" t="n">
-        <v>-5720.085753939999</v>
-      </c>
-      <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L809" t="n">
-        <v>1</v>
-      </c>
-      <c r="M809" t="inlineStr"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B810" t="n">
-        <v>64200</v>
-      </c>
-      <c r="C810" t="n">
-        <v>64200</v>
-      </c>
-      <c r="D810" t="n">
-        <v>64200</v>
-      </c>
-      <c r="E810" t="n">
-        <v>64200</v>
-      </c>
-      <c r="F810" t="n">
-        <v>18.0641</v>
-      </c>
-      <c r="G810" t="n">
-        <v>-5738.149853939998</v>
-      </c>
-      <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L810" t="n">
-        <v>1</v>
-      </c>
-      <c r="M810" t="inlineStr"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-      <c r="B811" t="n">
-        <v>64200</v>
-      </c>
-      <c r="C811" t="n">
-        <v>64000</v>
-      </c>
-      <c r="D811" t="n">
-        <v>64300</v>
-      </c>
-      <c r="E811" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F811" t="n">
-        <v>3.2068</v>
-      </c>
-      <c r="G811" t="n">
-        <v>-5741.356653939998</v>
-      </c>
-      <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L811" t="n">
-        <v>1</v>
-      </c>
-      <c r="M811" t="inlineStr"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="B812" t="n">
-        <v>64000</v>
-      </c>
-      <c r="C812" t="n">
-        <v>63950</v>
-      </c>
-      <c r="D812" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E812" t="n">
-        <v>63950</v>
-      </c>
-      <c r="F812" t="n">
-        <v>65.6664</v>
-      </c>
-      <c r="G812" t="n">
-        <v>-5807.023053939998</v>
-      </c>
-      <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L812" t="n">
-        <v>1</v>
-      </c>
-      <c r="M812" t="inlineStr"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B813" t="n">
-        <v>63950</v>
-      </c>
-      <c r="C813" t="n">
-        <v>64050</v>
-      </c>
-      <c r="D813" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E813" t="n">
-        <v>63950</v>
-      </c>
-      <c r="F813" t="n">
-        <v>60.437</v>
-      </c>
-      <c r="G813" t="n">
-        <v>-5746.586053939998</v>
-      </c>
-      <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L813" t="n">
-        <v>1</v>
-      </c>
-      <c r="M813" t="inlineStr"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="n">
-        <v>64050</v>
-      </c>
-      <c r="C814" t="n">
-        <v>64050</v>
-      </c>
-      <c r="D814" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E814" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F814" t="n">
-        <v>85.5133</v>
-      </c>
-      <c r="G814" t="n">
-        <v>-5746.586053939998</v>
-      </c>
-      <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L814" t="n">
-        <v>1</v>
-      </c>
-      <c r="M814" t="inlineStr"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="n">
-        <v>63950</v>
-      </c>
-      <c r="C815" t="n">
-        <v>64000</v>
-      </c>
-      <c r="D815" t="n">
-        <v>64000</v>
-      </c>
-      <c r="E815" t="n">
-        <v>63900</v>
-      </c>
-      <c r="F815" t="n">
-        <v>23.7035</v>
-      </c>
-      <c r="G815" t="n">
-        <v>-5770.289553939998</v>
-      </c>
-      <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L815" t="n">
-        <v>1</v>
-      </c>
-      <c r="M815" t="inlineStr"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B816" t="n">
-        <v>64250</v>
-      </c>
-      <c r="C816" t="n">
-        <v>64250</v>
-      </c>
-      <c r="D816" t="n">
-        <v>64250</v>
-      </c>
-      <c r="E816" t="n">
-        <v>64250</v>
-      </c>
-      <c r="F816" t="n">
-        <v>66.5783</v>
-      </c>
-      <c r="G816" t="n">
-        <v>-5703.711253939998</v>
-      </c>
-      <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L816" t="n">
-        <v>1</v>
-      </c>
-      <c r="M816" t="inlineStr"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B817" t="n">
-        <v>64100</v>
-      </c>
-      <c r="C817" t="n">
-        <v>64250</v>
-      </c>
-      <c r="D817" t="n">
-        <v>64250</v>
-      </c>
-      <c r="E817" t="n">
-        <v>64100</v>
-      </c>
-      <c r="F817" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="G817" t="n">
-        <v>-5703.711253939998</v>
-      </c>
-      <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L817" t="n">
-        <v>1</v>
-      </c>
-      <c r="M817" t="inlineStr"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="n">
-        <v>64100</v>
-      </c>
-      <c r="C818" t="n">
-        <v>64100</v>
-      </c>
-      <c r="D818" t="n">
-        <v>64100</v>
-      </c>
-      <c r="E818" t="n">
-        <v>64100</v>
-      </c>
-      <c r="F818" t="n">
-        <v>0.0195</v>
-      </c>
-      <c r="G818" t="n">
-        <v>-5703.730753939998</v>
-      </c>
-      <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L818" t="n">
-        <v>1</v>
-      </c>
-      <c r="M818" t="inlineStr"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="n">
-        <v>64200</v>
-      </c>
-      <c r="C819" t="n">
-        <v>64100</v>
-      </c>
-      <c r="D819" t="n">
-        <v>64200</v>
-      </c>
-      <c r="E819" t="n">
-        <v>64100</v>
-      </c>
-      <c r="F819" t="n">
-        <v>7</v>
-      </c>
-      <c r="G819" t="n">
-        <v>-5703.730753939998</v>
-      </c>
-      <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L819" t="n">
-        <v>1</v>
-      </c>
-      <c r="M819" t="inlineStr"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="n">
-        <v>64200</v>
-      </c>
-      <c r="C820" t="n">
-        <v>64100</v>
-      </c>
-      <c r="D820" t="n">
-        <v>64200</v>
-      </c>
-      <c r="E820" t="n">
-        <v>64100</v>
-      </c>
-      <c r="F820" t="n">
-        <v>100.1997</v>
-      </c>
-      <c r="G820" t="n">
-        <v>-5703.730753939998</v>
-      </c>
-      <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L820" t="n">
-        <v>1</v>
-      </c>
-      <c r="M820" t="inlineStr"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B821" t="n">
-        <v>64100</v>
-      </c>
-      <c r="C821" t="n">
-        <v>64100</v>
-      </c>
-      <c r="D821" t="n">
-        <v>64100</v>
-      </c>
-      <c r="E821" t="n">
-        <v>64100</v>
-      </c>
-      <c r="F821" t="n">
-        <v>80</v>
-      </c>
-      <c r="G821" t="n">
-        <v>-5703.730753939998</v>
-      </c>
-      <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L821" t="n">
-        <v>1</v>
-      </c>
-      <c r="M821" t="inlineStr"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B822" t="n">
-        <v>64050</v>
-      </c>
-      <c r="C822" t="n">
-        <v>64050</v>
-      </c>
-      <c r="D822" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E822" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F822" t="n">
-        <v>10.11672911</v>
-      </c>
-      <c r="G822" t="n">
-        <v>-5713.847483049998</v>
-      </c>
-      <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L822" t="n">
-        <v>1</v>
-      </c>
-      <c r="M822" t="inlineStr"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B823" t="n">
-        <v>63950</v>
-      </c>
-      <c r="C823" t="n">
-        <v>63900</v>
-      </c>
-      <c r="D823" t="n">
-        <v>63950</v>
-      </c>
-      <c r="E823" t="n">
-        <v>63900</v>
-      </c>
-      <c r="F823" t="n">
-        <v>6.1008</v>
-      </c>
-      <c r="G823" t="n">
-        <v>-5719.948283049998</v>
-      </c>
-      <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L823" t="n">
-        <v>1</v>
-      </c>
-      <c r="M823" t="inlineStr"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="n">
-        <v>64050</v>
-      </c>
-      <c r="C824" t="n">
-        <v>63800</v>
-      </c>
-      <c r="D824" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E824" t="n">
-        <v>63800</v>
-      </c>
-      <c r="F824" t="n">
-        <v>97.92870000000001</v>
-      </c>
-      <c r="G824" t="n">
-        <v>-5817.876983049999</v>
-      </c>
-      <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L824" t="n">
-        <v>1</v>
-      </c>
-      <c r="M824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>63750</v>
-      </c>
-      <c r="C825" t="n">
-        <v>63750</v>
-      </c>
-      <c r="D825" t="n">
-        <v>63750</v>
-      </c>
-      <c r="E825" t="n">
-        <v>63750</v>
-      </c>
-      <c r="F825" t="n">
-        <v>111.3813</v>
-      </c>
-      <c r="G825" t="n">
-        <v>-5929.258283049999</v>
-      </c>
-      <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L825" t="n">
-        <v>1</v>
-      </c>
-      <c r="M825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>63750</v>
-      </c>
-      <c r="C826" t="n">
-        <v>63750</v>
-      </c>
-      <c r="D826" t="n">
-        <v>63750</v>
-      </c>
-      <c r="E826" t="n">
-        <v>63650</v>
-      </c>
-      <c r="F826" t="n">
-        <v>14.2704</v>
-      </c>
-      <c r="G826" t="n">
-        <v>-5929.258283049999</v>
-      </c>
-      <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C827" t="n">
-        <v>63700</v>
-      </c>
-      <c r="D827" t="n">
-        <v>63800</v>
-      </c>
-      <c r="E827" t="n">
-        <v>63700</v>
-      </c>
-      <c r="F827" t="n">
-        <v>23.1127</v>
-      </c>
-      <c r="G827" t="n">
-        <v>-5952.370983049998</v>
-      </c>
-      <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C828" t="n">
-        <v>63800</v>
-      </c>
-      <c r="D828" t="n">
-        <v>63800</v>
-      </c>
-      <c r="E828" t="n">
-        <v>63600</v>
-      </c>
-      <c r="F828" t="n">
-        <v>46.321</v>
-      </c>
-      <c r="G828" t="n">
-        <v>-5906.049983049998</v>
-      </c>
-      <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>63550</v>
-      </c>
-      <c r="C829" t="n">
-        <v>63800</v>
-      </c>
-      <c r="D829" t="n">
-        <v>63800</v>
-      </c>
-      <c r="E829" t="n">
-        <v>63550</v>
-      </c>
-      <c r="F829" t="n">
-        <v>43.7026</v>
-      </c>
-      <c r="G829" t="n">
-        <v>-5906.049983049998</v>
-      </c>
-      <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>63900</v>
-      </c>
-      <c r="C830" t="n">
-        <v>63900</v>
-      </c>
-      <c r="D830" t="n">
-        <v>63900</v>
-      </c>
-      <c r="E830" t="n">
-        <v>63900</v>
-      </c>
-      <c r="F830" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-5900.249983049998</v>
-      </c>
-      <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>63900</v>
-      </c>
-      <c r="C831" t="n">
-        <v>63900</v>
-      </c>
-      <c r="D831" t="n">
-        <v>63900</v>
-      </c>
-      <c r="E831" t="n">
-        <v>63900</v>
-      </c>
-      <c r="F831" t="n">
-        <v>69.31189999999999</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-5900.249983049998</v>
-      </c>
-      <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>63750</v>
-      </c>
-      <c r="C832" t="n">
-        <v>63750</v>
-      </c>
-      <c r="D832" t="n">
-        <v>63800</v>
-      </c>
-      <c r="E832" t="n">
-        <v>63700</v>
-      </c>
-      <c r="F832" t="n">
-        <v>62.7846</v>
-      </c>
-      <c r="G832" t="n">
-        <v>-5963.034583049998</v>
-      </c>
-      <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28157,7 +27889,9 @@
       <c r="I833" t="n">
         <v>63750</v>
       </c>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>63900</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28191,10 +27925,14 @@
         <v>-6231.079183049998</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>63450</v>
+      </c>
+      <c r="J834" t="n">
+        <v>63900</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28233,7 +27971,9 @@
       <c r="I835" t="n">
         <v>63500</v>
       </c>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>63900</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28272,7 +28012,9 @@
       <c r="I836" t="n">
         <v>63250</v>
       </c>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>63900</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28311,7 +28053,9 @@
       <c r="I837" t="n">
         <v>63300</v>
       </c>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>63900</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28350,7 +28094,9 @@
       <c r="I838" t="n">
         <v>63550</v>
       </c>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>63900</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28389,7 +28135,9 @@
       <c r="I839" t="n">
         <v>63600</v>
       </c>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>63900</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28428,7 +28176,9 @@
       <c r="I840" t="n">
         <v>63500</v>
       </c>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>63900</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28467,7 +28217,9 @@
       <c r="I841" t="n">
         <v>63350</v>
       </c>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>63900</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28506,7 +28258,9 @@
       <c r="I842" t="n">
         <v>63500</v>
       </c>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>63900</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28545,7 +28299,9 @@
       <c r="I843" t="n">
         <v>63500</v>
       </c>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>63900</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28584,7 +28340,9 @@
       <c r="I844" t="n">
         <v>63200</v>
       </c>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>63900</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28623,7 +28381,9 @@
       <c r="I845" t="n">
         <v>63650</v>
       </c>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>63900</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28657,10 +28417,14 @@
         <v>-5905.281383049999</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>63800</v>
+      </c>
+      <c r="J846" t="n">
+        <v>63900</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28699,7 +28463,9 @@
       <c r="I847" t="n">
         <v>63850</v>
       </c>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>63900</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28733,10 +28499,14 @@
         <v>-5902.612483049999</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>63850</v>
+      </c>
+      <c r="J848" t="n">
+        <v>63900</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28775,7 +28545,9 @@
       <c r="I849" t="n">
         <v>63900</v>
       </c>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>63900</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28809,10 +28581,14 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>63800</v>
+      </c>
+      <c r="J850" t="n">
+        <v>63900</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28846,10 +28622,14 @@
         <v>-5937.704583049999</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>63950</v>
+      </c>
+      <c r="J851" t="n">
+        <v>63900</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28883,10 +28663,14 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>63950</v>
+      </c>
+      <c r="J852" t="n">
+        <v>63900</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28920,10 +28704,14 @@
         <v>-5934.704583049999</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>64050</v>
+      </c>
+      <c r="J853" t="n">
+        <v>63900</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28960,7 +28748,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>63900</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28997,7 +28787,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>63900</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29034,7 +28826,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>63900</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29071,7 +28865,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>63900</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29108,7 +28904,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>63900</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29145,7 +28943,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>63900</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29182,7 +28982,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>63900</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29219,7 +29021,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>63900</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29256,7 +29060,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>63900</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
